--- a/biology/Zoologie/Isocrinida/Isocrinida.xlsx
+++ b/biology/Zoologie/Isocrinida/Isocrinida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Isocrinida sont un ordre de Crinoïdes (Échinodermes) sessiles (pédonculés), assez archaïques et vivant surtout en eaux profondes ou froides.
 </t>
@@ -511,14 +523,13 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des crinoïdes « vrais » (sessiles) : ils sont munis d'une longue tige calcaire articulée, généralement munie d'un crampon, qui leur permet de tenir leur corps en position érigée au-dessus du sédiment.
 Le calice est plus large que haut, en forme de cône évasé ou de bol. Les bras sont longs, et le plus souvent tous de même longueur (d'où l'étymologie de l'ordre). Les entroques qui composent la tige sont en forme d'étoile.
-La cavité radiale est large, et les éléments qui composent le calice pas très épais, les basaux étant généralement plus bas que les radiaux. Les canaux axiaux entre les branchiaux sont uniques[2].
-Nourriture et mode de vie
-Sur sa face orale, les pinnules sont, comme les branches des étoiles de mer, frangées de minuscules tubes, les podia. Ceux-ci sécrètent une sorte de glu où se collent des larves de crustacés et des débris d'organismes. Les particules glissent ensuite comme sur des rails, le long de gouttières bordées de cils qui parcourent les bras jusqu'à la bouche ouverte au centre du calice.
-La vingtaine d'espèces qui ont subsisté jusqu'à nos jours (principalement des Isselicrinidae des genres Metacrinus et Endoxocrinus) sont abyssales ou polaires.
+La cavité radiale est large, et les éléments qui composent le calice pas très épais, les basaux étant généralement plus bas que les radiaux. Les canaux axiaux entre les branchiaux sont uniques.
 </t>
         </is>
       </c>
@@ -544,12 +555,52 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description et caractéristiques</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nourriture et mode de vie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur sa face orale, les pinnules sont, comme les branches des étoiles de mer, frangées de minuscules tubes, les podia. Ceux-ci sécrètent une sorte de glu où se collent des larves de crustacés et des débris d'organismes. Les particules glissent ensuite comme sur des rails, le long de gouttières bordées de cils qui parcourent les bras jusqu'à la bouche ouverte au centre du calice.
+La vingtaine d'espèces qui ont subsisté jusqu'à nos jours (principalement des Isselicrinidae des genres Metacrinus et Endoxocrinus) sont abyssales ou polaires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Isocrinida</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Isocrinida</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Liste des sous-ordres et familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (16 avril 2021)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (16 avril 2021) :
 Sous-ordre Isocrinina Sieverts-Doreck, 1952
 famille Cainocrinidae Simms, 1988 -- 1 genre (1 espèce)
 famille Isocrinidae Gislén, 1924 -- 3 genres (3 espèces)
